--- a/ポケモンUSUM/現在seed算出シート .xlsx
+++ b/ポケモンUSUM/現在seed算出シート .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B139AE47-B8CF-455B-AF73-4D3612139A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BEB58C-0660-46BD-BD23-E7F8858F6706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{09DC21DD-0B11-46D1-AC63-C65F1FAF18AB}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>何匹目</t>
     <rPh sb="0" eb="2">
@@ -595,6 +595,16 @@
       <t>シンスウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'=IF($C$1=$E3,0,IF($E$1=$E3,1,""))'</t>
   </si>
 </sst>
 </file>
@@ -830,7 +840,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,9 +891,6 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,6 +912,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - アクセント 1" xfId="5" builtinId="32"/>
@@ -917,13 +933,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7575"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -931,6 +940,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF4BCDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7575"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1262,29 +1278,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="4" width="9.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="9.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" customWidth="1"/>
-    <col min="8" max="8" width="23.69921875" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="9.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.8984375" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>66</v>
       </c>
@@ -1294,26 +1310,23 @@
       <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1324,1776 +1337,1721 @@
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="18" t="str">
-        <f>_xlfn.CONCAT(D3:D129)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="27" t="str">
+        <f>_xlfn.CONCAT(C3:C129)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f>IF($F3=$D$1,0,IF($F3=$F$1,1,""))</f>
-        <v/>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="C3" s="28" t="str">
+        <f>IF($C$1=$E3,0,IF($E$1=$E3,1,""))</f>
+        <v/>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f>IF($F4=$D$1,0,IF($F4=$F$1,1,""))</f>
-        <v/>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="C4" s="28" t="str">
+        <f t="shared" ref="C4:C67" si="0">IF($C$1=$E4,0,IF($E$1=$E4,1,""))</f>
+        <v/>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D68" si="0">IF($F5=$D$1,0,IF($F5=$F$1,1,""))</f>
-        <v/>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="C5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="C6" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="C7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="C8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="C10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="C13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="C15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="C16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="C17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="C19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="C20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="C22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="C24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="C25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="C26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="C27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="C28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="C29" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="C31" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="C32" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="C33" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="C34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="C35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="C36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="C37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="C38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="C40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="C41" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="C42" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="C43" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="C44" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="C45" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="6"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="C46" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="C47" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="C48" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="C49" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="C50" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="C51" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="C52" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="C53" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="C54" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="C55" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="C56" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="C57" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="C58" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="C59" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="C60" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="C61" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="C62" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="1">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="C63" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="C64" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="1">
         <v>63</v>
       </c>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="C65" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="C66" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="1">
         <v>65</v>
       </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="C67" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="1">
         <v>66</v>
       </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="C68" s="28" t="str">
+        <f t="shared" ref="C68:C129" si="1">IF($C$1=$E68,0,IF($E$1=$E68,1,""))</f>
+        <v/>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="1">
         <v>67</v>
       </c>
-      <c r="D69" s="1" t="str">
-        <f t="shared" ref="D69:D129" si="1">IF($F69=$D$1,0,IF($F69=$F$1,1,""))</f>
-        <v/>
-      </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="C69" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="1">
         <v>68</v>
       </c>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="C70" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7">
       <c r="B71" s="1">
         <v>69</v>
       </c>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="C71" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" s="1">
         <v>70</v>
       </c>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="C72" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="1">
         <v>71</v>
       </c>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="C73" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7">
       <c r="B74" s="1">
         <v>72</v>
       </c>
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="C74" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="1">
         <v>73</v>
       </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="C75" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="1">
         <v>74</v>
       </c>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="C76" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="1">
         <v>75</v>
       </c>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="C77" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="1">
         <v>76</v>
       </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="C78" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="1">
         <v>77</v>
       </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="C79" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="1">
         <v>78</v>
       </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="C80" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" s="1">
         <v>79</v>
       </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="C81" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="1">
         <v>80</v>
       </c>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="C82" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="B83" s="1">
         <v>81</v>
       </c>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="C83" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" s="1">
         <v>82</v>
       </c>
-      <c r="D84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="C84" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" s="1">
         <v>83</v>
       </c>
-      <c r="D85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="C85" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="D86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="C86" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="1">
         <v>85</v>
       </c>
-      <c r="D87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="C87" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88" s="1">
         <v>86</v>
       </c>
-      <c r="D88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="C88" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89" s="1">
         <v>87</v>
       </c>
-      <c r="D89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="C89" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90" s="1">
         <v>88</v>
       </c>
-      <c r="D90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="C90" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="1">
         <v>89</v>
       </c>
-      <c r="D91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="C91" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92" s="1">
         <v>90</v>
       </c>
-      <c r="D92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="C92" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93" s="1">
         <v>91</v>
       </c>
-      <c r="D93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="C93" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="1">
         <v>92</v>
       </c>
-      <c r="D94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="C94" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="1">
         <v>93</v>
       </c>
-      <c r="D95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="C95" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7">
       <c r="B96" s="1">
         <v>94</v>
       </c>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:8">
+      <c r="C96" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7">
       <c r="B97" s="1">
         <v>95</v>
       </c>
-      <c r="D97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8">
+      <c r="C97" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98" s="1">
         <v>96</v>
       </c>
-      <c r="D98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="C98" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7">
       <c r="B99" s="1">
         <v>97</v>
       </c>
-      <c r="D99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="C99" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="1">
         <v>98</v>
       </c>
-      <c r="D100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8">
+      <c r="C100" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7">
       <c r="B101" s="1">
         <v>99</v>
       </c>
-      <c r="D101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="2:8">
+      <c r="C101" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102" s="1">
         <v>100</v>
       </c>
-      <c r="D102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="2:8">
+      <c r="C102" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7">
       <c r="B103" s="1">
         <v>101</v>
       </c>
-      <c r="D103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="2:8">
+      <c r="C103" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7">
       <c r="B104" s="1">
         <v>102</v>
       </c>
-      <c r="D104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="2:8">
+      <c r="C104" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7">
       <c r="B105" s="1">
         <v>103</v>
       </c>
-      <c r="D105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="2:8">
+      <c r="C105" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7">
       <c r="B106" s="1">
         <v>104</v>
       </c>
-      <c r="D106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="2:8">
+      <c r="C106" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7">
       <c r="B107" s="1">
         <v>105</v>
       </c>
-      <c r="D107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="C107" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="2:7">
       <c r="B108" s="1">
         <v>106</v>
       </c>
-      <c r="D108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="2:8">
+      <c r="C108" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7">
       <c r="B109" s="1">
         <v>107</v>
       </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="C109" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7">
       <c r="B110" s="1">
         <v>108</v>
       </c>
-      <c r="D110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="2:8">
+      <c r="C110" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="2:7">
       <c r="B111" s="1">
         <v>109</v>
       </c>
-      <c r="D111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="2:8">
+      <c r="C111" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="2:7">
       <c r="B112" s="1">
         <v>110</v>
       </c>
-      <c r="D112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="C112" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="B113" s="1">
         <v>111</v>
       </c>
-      <c r="D113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="C113" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="B114" s="1">
         <v>112</v>
       </c>
-      <c r="D114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="C114" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="6"/>
       <c r="B115" s="1">
         <v>113</v>
       </c>
-      <c r="D115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="C115" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="B116" s="1">
         <v>114</v>
       </c>
-      <c r="D116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="C116" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="B117" s="1">
         <v>115</v>
       </c>
-      <c r="D117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="C117" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="B118" s="1">
         <v>116</v>
       </c>
-      <c r="D118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="C118" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="B119" s="1">
         <v>117</v>
       </c>
-      <c r="D119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="C119" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
       <c r="B120" s="1">
         <v>118</v>
       </c>
-      <c r="D120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="C120" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
       <c r="B121" s="1">
         <v>119</v>
       </c>
-      <c r="D121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="C121" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="B122" s="1">
         <v>120</v>
       </c>
-      <c r="D122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="C122" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="B123" s="1">
         <v>121</v>
       </c>
-      <c r="D123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="C123" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="B124" s="1">
         <v>122</v>
       </c>
-      <c r="D124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="C124" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="B125" s="1">
         <v>123</v>
       </c>
-      <c r="D125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="C125" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="B126" s="1">
         <v>124</v>
       </c>
-      <c r="D126" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="C126" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="B127" s="1">
         <v>125</v>
       </c>
-      <c r="D127" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="C127" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="B128" s="1">
         <v>126</v>
       </c>
-      <c r="D128" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="2:8">
+      <c r="C128" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="2:7">
       <c r="B129" s="1">
         <v>127</v>
       </c>
-      <c r="D129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="137" spans="2:8">
+      <c r="C129" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="137" spans="2:7">
       <c r="B137" t="s">
         <v>4</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H137" t="s">
+      <c r="G137" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="25" t="s">
+    <row r="138" spans="2:7">
+      <c r="B138" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="8"/>
-      <c r="F138" s="13" t="s">
+      <c r="C138" s="8"/>
+      <c r="E138" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H138" s="21" t="s">
+      <c r="G138" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B139" s="25" t="s">
+    <row r="139" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B139" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="25"/>
-      <c r="D139" s="8"/>
-      <c r="F139" s="14" t="s">
+      <c r="C139" s="8"/>
+      <c r="E139" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H139" s="23" t="s">
+      <c r="G139" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="25" t="s">
+    <row r="140" spans="2:7">
+      <c r="B140" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="8"/>
-      <c r="F140" s="14" t="s">
+      <c r="C140" s="8"/>
+      <c r="E140" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H140" s="21" t="s">
+      <c r="G140" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="25" t="s">
+    <row r="141" spans="2:7">
+      <c r="B141" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="25"/>
-      <c r="D141" s="8"/>
-      <c r="F141" s="13" t="s">
+      <c r="C141" s="8"/>
+      <c r="E141" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="G141" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B142" s="25" t="s">
+    <row r="142" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B142" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="25"/>
-      <c r="D142" s="8"/>
-      <c r="F142" s="11" t="s">
+      <c r="C142" s="8"/>
+      <c r="E142" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H142" s="22" t="s">
+      <c r="G142" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="25" t="s">
+    <row r="143" spans="2:7">
+      <c r="B143" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="25"/>
-      <c r="D143" s="8"/>
-      <c r="F143" s="13" t="s">
+      <c r="C143" s="8"/>
+      <c r="E143" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="G143" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="25" t="s">
+    <row r="144" spans="2:7">
+      <c r="B144" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="25"/>
-      <c r="D144" s="8"/>
-      <c r="F144" s="13" t="s">
+      <c r="C144" s="8"/>
+      <c r="E144" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H144" s="21" t="s">
+      <c r="G144" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="2:8">
-      <c r="B145" s="26" t="s">
+    <row r="145" spans="2:7">
+      <c r="B145" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="26"/>
-      <c r="D145" s="9"/>
-      <c r="F145" s="14" t="s">
+      <c r="C145" s="9"/>
+      <c r="E145" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="G145" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
-      <c r="B146" s="26" t="s">
+    <row r="146" spans="2:7">
+      <c r="B146" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="9"/>
-      <c r="F146" s="13" t="s">
+      <c r="C146" s="9"/>
+      <c r="E146" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H146" s="21" t="s">
+      <c r="G146" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
-      <c r="B147" s="25" t="s">
+    <row r="147" spans="2:7">
+      <c r="B147" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="25"/>
-      <c r="D147" s="8"/>
-      <c r="F147" s="13" t="s">
+      <c r="C147" s="8"/>
+      <c r="E147" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="G147" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="27" t="s">
+    <row r="148" spans="2:7">
+      <c r="B148" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C148" s="27"/>
-      <c r="D148" s="10"/>
-      <c r="F148" s="14" t="s">
+      <c r="C148" s="10"/>
+      <c r="E148" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H148" s="20" t="s">
+      <c r="G148" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
-      <c r="B149" s="25" t="s">
+    <row r="149" spans="2:7">
+      <c r="B149" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="25"/>
-      <c r="D149" s="8"/>
-      <c r="F149" s="14" t="s">
+      <c r="C149" s="8"/>
+      <c r="E149" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H149" s="20" t="s">
+      <c r="G149" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
-      <c r="B150" s="27" t="s">
+    <row r="150" spans="2:7">
+      <c r="B150" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="27"/>
-      <c r="D150" s="10"/>
-      <c r="F150" s="13" t="s">
+      <c r="C150" s="10"/>
+      <c r="E150" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="G150" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="2:8">
-      <c r="B151" s="27" t="s">
+    <row r="151" spans="2:7">
+      <c r="B151" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="27"/>
-      <c r="D151" s="10"/>
-      <c r="F151" s="13" t="s">
+      <c r="C151" s="10"/>
+      <c r="E151" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H151" s="21" t="s">
+      <c r="G151" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
-      <c r="B152" s="27" t="s">
+    <row r="152" spans="2:7">
+      <c r="B152" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C152" s="27"/>
-      <c r="D152" s="10"/>
-      <c r="F152" s="13" t="s">
+      <c r="C152" s="10"/>
+      <c r="E152" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="G152" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="2:8">
-      <c r="B153" s="27" t="s">
+    <row r="153" spans="2:7">
+      <c r="B153" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="10"/>
-      <c r="F153" s="13" t="s">
+      <c r="C153" s="10"/>
+      <c r="E153" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H153" s="20" t="s">
+      <c r="G153" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
-      <c r="B154" s="25" t="s">
+    <row r="154" spans="2:7">
+      <c r="B154" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C154" s="25"/>
-      <c r="D154" s="8"/>
-      <c r="F154" s="12" t="s">
+      <c r="C154" s="8"/>
+      <c r="E154" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H154" s="20" t="s">
+      <c r="G154" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="2:8">
-      <c r="B155" s="26" t="s">
+    <row r="155" spans="2:7">
+      <c r="B155" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="26"/>
-      <c r="D155" s="9"/>
-      <c r="F155" s="13" t="s">
+      <c r="C155" s="9"/>
+      <c r="E155" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H155" s="20" t="s">
+      <c r="G155" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="2:8">
-      <c r="B156" s="25" t="s">
+    <row r="156" spans="2:7">
+      <c r="B156" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="8"/>
-      <c r="F156" s="13" t="s">
+      <c r="C156" s="8"/>
+      <c r="E156" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H156" s="20" t="s">
+      <c r="G156" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
-      <c r="B157" s="25" t="s">
+    <row r="157" spans="2:7">
+      <c r="B157" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="8"/>
-      <c r="F157" s="14" t="s">
+      <c r="C157" s="8"/>
+      <c r="E157" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H157" s="20" t="s">
+      <c r="G157" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
-      <c r="B158" s="25" t="s">
+    <row r="158" spans="2:7">
+      <c r="B158" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C158" s="25"/>
-      <c r="D158" s="8"/>
-      <c r="F158" s="13" t="s">
+      <c r="C158" s="8"/>
+      <c r="E158" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H158" s="21" t="s">
+      <c r="G158" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
-      <c r="B159" s="25" t="s">
+    <row r="159" spans="2:7">
+      <c r="B159" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="8"/>
-      <c r="F159" s="13" t="s">
+      <c r="C159" s="8"/>
+      <c r="E159" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H159" s="20" t="s">
+      <c r="G159" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="2:8">
-      <c r="B160" s="25" t="s">
+    <row r="160" spans="2:7">
+      <c r="B160" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="8"/>
-      <c r="F160" s="14" t="s">
+      <c r="C160" s="8"/>
+      <c r="E160" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H160" s="20" t="s">
+      <c r="G160" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
-      <c r="B161" s="25" t="s">
+    <row r="161" spans="2:7">
+      <c r="B161" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="8"/>
-      <c r="F161" s="13" t="s">
+      <c r="C161" s="8"/>
+      <c r="E161" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H161" s="20" t="s">
+      <c r="G161" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="2:8">
-      <c r="B162" s="25" t="s">
+    <row r="162" spans="2:7">
+      <c r="B162" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C162" s="25"/>
-      <c r="D162" s="8"/>
-      <c r="F162" s="13" t="s">
+      <c r="C162" s="8"/>
+      <c r="E162" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
-      <c r="B163" s="25" t="s">
+    <row r="163" spans="2:7">
+      <c r="B163" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C163" s="25"/>
-      <c r="D163" s="8"/>
-    </row>
-    <row r="164" spans="2:8" ht="19.8">
-      <c r="B164" s="25" t="s">
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="2:7" ht="19.8">
+      <c r="B164" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C164" s="25"/>
-      <c r="D164" s="8"/>
-      <c r="F164" t="s">
+      <c r="C164" s="8"/>
+      <c r="E164" t="s">
         <v>68</v>
       </c>
-      <c r="H164" s="20" t="s">
+      <c r="G164" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
-      <c r="B165" s="26" t="s">
+    <row r="165" spans="2:7">
+      <c r="B165" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="9"/>
-      <c r="F165" s="1" t="s">
+      <c r="C165" s="9"/>
+      <c r="E165" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G165" s="5" t="str">
+      <c r="F165" s="5" t="str">
         <f>C1</f>
         <v>むじゃき</v>
       </c>
-      <c r="H165" t="str">
+      <c r="G165" t="str">
+        <f>G1</f>
+        <v>クイックボール</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="E166" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F166" s="18" t="str">
+        <f>E1</f>
+        <v>ようき</v>
+      </c>
+      <c r="G166" t="str">
         <f>H1</f>
-        <v>クイックボール</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8">
-      <c r="B166" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="25"/>
-      <c r="D166" s="8"/>
-      <c r="F166" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G166" s="19" t="str">
-        <f>F1</f>
-        <v>ようき</v>
-      </c>
-      <c r="H166" t="str">
-        <f>I1</f>
         <v>モンスターボール</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
-      <c r="B167" s="25" t="s">
+    <row r="167" spans="2:7">
+      <c r="B167" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C167" s="25"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="E168" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="E169" s="29" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H129" xr:uid="{87B1030C-37E2-435C-9A31-265C61BF4FA6}"/>
-  <mergeCells count="30">
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-  </mergeCells>
+  <autoFilter ref="A2:G129" xr:uid="{87B1030C-37E2-435C-9A31-265C61BF4FA6}"/>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="E3:E129">
+  <conditionalFormatting sqref="D3:D129">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="♀">
-      <formula>NOT(ISERROR(SEARCH("♀",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("♀",D3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="♂">
-      <formula>NOT(ISERROR(SEARCH("♂",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("♂",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F129">
+  <conditionalFormatting sqref="E3:E129">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ようき">
-      <formula>NOT(ISERROR(SEARCH("ようき",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ようき",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="むじゃき">
-      <formula>NOT(ISERROR(SEARCH("むじゃき",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("むじゃき",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H129">
+  <conditionalFormatting sqref="G3:G129">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="クイックボール">
-      <formula>NOT(ISERROR(SEARCH("クイックボール",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("クイックボール",G3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="モンスターボール">
-      <formula>NOT(ISERROR(SEARCH("モンスターボール",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("モンスターボール",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E129" xr:uid="{779BF1B4-0ACF-469C-8496-E2933328EF03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D129" xr:uid="{779BF1B4-0ACF-469C-8496-E2933328EF03}">
       <formula1>"♂,♀"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H129" xr:uid="{5C169F59-466F-4518-A28B-3C44A2E9D201}">
-      <formula1>$H$165:$H$166</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G129" xr:uid="{5C169F59-466F-4518-A28B-3C44A2E9D201}">
+      <formula1>$G$165:$G$166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G129" xr:uid="{1DF4DBAD-1649-4679-9238-EA00A92EE2ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F129" xr:uid="{1DF4DBAD-1649-4679-9238-EA00A92EE2ED}">
       <formula1>$B$138:$B$167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1 F1" xr:uid="{8DB1190F-4185-4FE9-8404-F1A46E773054}">
-      <formula1>$F$138:$F$162</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 C1" xr:uid="{8DB1190F-4185-4FE9-8404-F1A46E773054}">
+      <formula1>$E$138:$E$162</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F129" xr:uid="{1AABD87F-B06F-4888-9E42-D970E6492193}">
-      <formula1>$G$165:$G$166</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E129" xr:uid="{1AABD87F-B06F-4888-9E42-D970E6492193}">
+      <formula1>$F$165:$F$166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1" xr:uid="{EEEBF36E-9838-4B3A-944E-3457613E74E7}">
-      <formula1>$H$138:$H$161</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1" xr:uid="{EEEBF36E-9838-4B3A-944E-3457613E74E7}">
+      <formula1>$G$138:$G$161</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3102,8 +3060,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A6C29D22-1336-44E0-949B-457E660D7B76}">
+            <xm:f>NOT(ISERROR(SEARCH(1,C3)))</xm:f>
+            <xm:f>1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF7575"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{ADA2C91D-2FBF-4BF1-83F6-CD0B1A5C20F3}">
-            <xm:f>NOT(ISERROR(SEARCH(0,D3)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(0,C3)))</xm:f>
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -3117,18 +3086,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A6C29D22-1336-44E0-949B-457E660D7B76}">
-            <xm:f>NOT(ISERROR(SEARCH(1,D3)))</xm:f>
-            <xm:f>1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF7575"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D3:D129</xm:sqref>
+          <xm:sqref>C3:C129</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
